--- a/data/pca/factorExposure/factorExposure_2016-06-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01079207234667182</v>
+        <v>0.01276236990207851</v>
       </c>
       <c r="C2">
-        <v>0.05503326486267775</v>
+        <v>0.03975977693510289</v>
       </c>
       <c r="D2">
-        <v>-0.04146452929097245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05674554272709448</v>
+      </c>
+      <c r="E2">
+        <v>0.08599623352880316</v>
+      </c>
+      <c r="F2">
+        <v>-0.08170310424145243</v>
+      </c>
+      <c r="G2">
+        <v>-0.001907428221630777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03727036842808794</v>
+        <v>0.0230282106954507</v>
       </c>
       <c r="C3">
-        <v>0.1179951229952071</v>
+        <v>0.07116174479782841</v>
       </c>
       <c r="D3">
-        <v>-0.09579182367421353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07685606270454372</v>
+      </c>
+      <c r="E3">
+        <v>0.06821566604094531</v>
+      </c>
+      <c r="F3">
+        <v>0.02667071453635741</v>
+      </c>
+      <c r="G3">
+        <v>0.03969968286040543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05740067151641047</v>
+        <v>0.05572420876625832</v>
       </c>
       <c r="C4">
-        <v>0.06213337873381512</v>
+        <v>0.06537323374486805</v>
       </c>
       <c r="D4">
-        <v>-0.02991895042594675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05217678709497638</v>
+      </c>
+      <c r="E4">
+        <v>0.08390619369934008</v>
+      </c>
+      <c r="F4">
+        <v>-0.0624373006941632</v>
+      </c>
+      <c r="G4">
+        <v>0.07251018484600498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03847028865073474</v>
+        <v>0.03449334100666895</v>
       </c>
       <c r="C6">
-        <v>0.03888444339126026</v>
+        <v>0.03012133964583314</v>
       </c>
       <c r="D6">
-        <v>-0.03450909369636974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05912026399385742</v>
+      </c>
+      <c r="E6">
+        <v>0.08586326365294623</v>
+      </c>
+      <c r="F6">
+        <v>-0.04660299799940324</v>
+      </c>
+      <c r="G6">
+        <v>0.05638587806891197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02051618361322934</v>
+        <v>0.01686043786225542</v>
       </c>
       <c r="C7">
-        <v>0.04682877006274577</v>
+        <v>0.03916367411506617</v>
       </c>
       <c r="D7">
-        <v>0.008695695834147841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03247866780358218</v>
+      </c>
+      <c r="E7">
+        <v>0.06075086518733314</v>
+      </c>
+      <c r="F7">
+        <v>-0.09470103372990644</v>
+      </c>
+      <c r="G7">
+        <v>0.06251737939850471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005586548751231495</v>
+        <v>0.00295497550577094</v>
       </c>
       <c r="C8">
-        <v>0.03580271145050978</v>
+        <v>0.03206990087572693</v>
       </c>
       <c r="D8">
-        <v>-0.02605593683669268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03052005434444927</v>
+      </c>
+      <c r="E8">
+        <v>0.05738289181924155</v>
+      </c>
+      <c r="F8">
+        <v>-0.03084264157760382</v>
+      </c>
+      <c r="G8">
+        <v>0.0269964144922757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03183851940733566</v>
+        <v>0.03570565306790727</v>
       </c>
       <c r="C9">
-        <v>0.04845974964869613</v>
+        <v>0.05216499181198325</v>
       </c>
       <c r="D9">
-        <v>-0.01246508050483052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03647370157145984</v>
+      </c>
+      <c r="E9">
+        <v>0.07069928395945349</v>
+      </c>
+      <c r="F9">
+        <v>-0.0740809913894422</v>
+      </c>
+      <c r="G9">
+        <v>0.06213220115706972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08588468831552351</v>
+        <v>0.1073733408724741</v>
       </c>
       <c r="C10">
-        <v>-0.1874651370886482</v>
+        <v>-0.1935700567337932</v>
       </c>
       <c r="D10">
-        <v>0.003498238615209045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01057642028238832</v>
+      </c>
+      <c r="E10">
+        <v>0.04363766352166815</v>
+      </c>
+      <c r="F10">
+        <v>-0.02632237517377092</v>
+      </c>
+      <c r="G10">
+        <v>0.02478653710466389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03893276811803211</v>
+        <v>0.03463065909977139</v>
       </c>
       <c r="C11">
-        <v>0.05487379446907843</v>
+        <v>0.04984158434977937</v>
       </c>
       <c r="D11">
-        <v>-0.009863307256283592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03065636335840793</v>
+      </c>
+      <c r="E11">
+        <v>0.02476760428635036</v>
+      </c>
+      <c r="F11">
+        <v>-0.05829472034401442</v>
+      </c>
+      <c r="G11">
+        <v>0.04955833437508601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04103213012935707</v>
+        <v>0.03692772800431533</v>
       </c>
       <c r="C12">
-        <v>0.04957914777434338</v>
+        <v>0.04694580478330792</v>
       </c>
       <c r="D12">
-        <v>-0.001200728097576737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02416613684871027</v>
+      </c>
+      <c r="E12">
+        <v>0.03266614695667196</v>
+      </c>
+      <c r="F12">
+        <v>-0.05957756168287899</v>
+      </c>
+      <c r="G12">
+        <v>0.0459570937405723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01075892990791278</v>
+        <v>0.009356762432769434</v>
       </c>
       <c r="C13">
-        <v>0.05353594659582672</v>
+        <v>0.04297997763783957</v>
       </c>
       <c r="D13">
-        <v>-0.009887201670453719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04312889787913261</v>
+      </c>
+      <c r="E13">
+        <v>0.09604062797517084</v>
+      </c>
+      <c r="F13">
+        <v>-0.08451181621751643</v>
+      </c>
+      <c r="G13">
+        <v>0.07052302628895758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006081090485489426</v>
+        <v>0.003550870426465122</v>
       </c>
       <c r="C14">
-        <v>0.04112727270903643</v>
+        <v>0.03337638516315954</v>
       </c>
       <c r="D14">
-        <v>0.01318952133304218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02202197834620888</v>
+      </c>
+      <c r="E14">
+        <v>0.04846576920568658</v>
+      </c>
+      <c r="F14">
+        <v>-0.09349190142475847</v>
+      </c>
+      <c r="G14">
+        <v>0.04784581801394202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002710958804606624</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004766077732652847</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006508332100217199</v>
+      </c>
+      <c r="E15">
+        <v>0.003927962288121204</v>
+      </c>
+      <c r="F15">
+        <v>-0.00658640703676852</v>
+      </c>
+      <c r="G15">
+        <v>0.003878451041661251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03610904549716416</v>
+        <v>0.03304873018505748</v>
       </c>
       <c r="C16">
-        <v>0.05019830503942021</v>
+        <v>0.0459896453111666</v>
       </c>
       <c r="D16">
-        <v>-0.005634733967088162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02352872310205749</v>
+      </c>
+      <c r="E16">
+        <v>0.03866075103880035</v>
+      </c>
+      <c r="F16">
+        <v>-0.06319908243010627</v>
+      </c>
+      <c r="G16">
+        <v>0.03466970494106274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01858646085241586</v>
+        <v>0.01420617245596145</v>
       </c>
       <c r="C19">
-        <v>0.06532389324373399</v>
+        <v>0.04753797228751798</v>
       </c>
       <c r="D19">
-        <v>-0.09190720117861509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08977787726384907</v>
+      </c>
+      <c r="E19">
+        <v>0.1108714264209402</v>
+      </c>
+      <c r="F19">
+        <v>-0.07835181680677475</v>
+      </c>
+      <c r="G19">
+        <v>0.0203087022555797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0141884600430814</v>
+        <v>0.01157320447683786</v>
       </c>
       <c r="C20">
-        <v>0.0486615563632057</v>
+        <v>0.03952729112222938</v>
       </c>
       <c r="D20">
-        <v>-0.01049637861300519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03108771805287524</v>
+      </c>
+      <c r="E20">
+        <v>0.07627403390388718</v>
+      </c>
+      <c r="F20">
+        <v>-0.0696155597055909</v>
+      </c>
+      <c r="G20">
+        <v>0.04598271179517802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007465818339600002</v>
+        <v>0.007505008505167829</v>
       </c>
       <c r="C21">
-        <v>0.04992438331665609</v>
+        <v>0.04233668669458861</v>
       </c>
       <c r="D21">
-        <v>-0.03827716593708813</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05769665420530437</v>
+      </c>
+      <c r="E21">
+        <v>0.1166461737176171</v>
+      </c>
+      <c r="F21">
+        <v>-0.111288836838782</v>
+      </c>
+      <c r="G21">
+        <v>0.07045745623635263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0008190066691502456</v>
+        <v>0.002236703912345591</v>
       </c>
       <c r="C22">
-        <v>0.0006493106507335266</v>
+        <v>0.02576313270443368</v>
       </c>
       <c r="D22">
-        <v>-0.001775731244107213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04126548574890274</v>
+      </c>
+      <c r="E22">
+        <v>0.0393002282901875</v>
+      </c>
+      <c r="F22">
+        <v>-0.001559859084217798</v>
+      </c>
+      <c r="G22">
+        <v>0.05130293361787445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0008246160971316275</v>
+        <v>0.002307658102565449</v>
       </c>
       <c r="C23">
-        <v>0.0006493194943537657</v>
+        <v>0.02592139607734053</v>
       </c>
       <c r="D23">
-        <v>-0.001781947175399842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04089860546385694</v>
+      </c>
+      <c r="E23">
+        <v>0.03955541971005438</v>
+      </c>
+      <c r="F23">
+        <v>-0.001263982556221024</v>
+      </c>
+      <c r="G23">
+        <v>0.05139160659983391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03264290299839026</v>
+        <v>0.03271506875224155</v>
       </c>
       <c r="C24">
-        <v>0.05156030120856967</v>
+        <v>0.05352031767145406</v>
       </c>
       <c r="D24">
-        <v>-0.006271951459734357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02358566454415846</v>
+      </c>
+      <c r="E24">
+        <v>0.03999069871174307</v>
+      </c>
+      <c r="F24">
+        <v>-0.06741146204525904</v>
+      </c>
+      <c r="G24">
+        <v>0.04530605042724148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04583164602871442</v>
+        <v>0.04201449639443647</v>
       </c>
       <c r="C25">
-        <v>0.063402198157773</v>
+        <v>0.05784511713200614</v>
       </c>
       <c r="D25">
-        <v>0.003712018327598237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02309297972319327</v>
+      </c>
+      <c r="E25">
+        <v>0.03037263768771996</v>
+      </c>
+      <c r="F25">
+        <v>-0.06249384833398319</v>
+      </c>
+      <c r="G25">
+        <v>0.06097955186405408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01503499471597771</v>
+        <v>0.01412105694683985</v>
       </c>
       <c r="C26">
-        <v>0.01827010997895006</v>
+        <v>0.01744568038281463</v>
       </c>
       <c r="D26">
-        <v>-0.001051300879348236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02190402600972761</v>
+      </c>
+      <c r="E26">
+        <v>0.04894224568693161</v>
+      </c>
+      <c r="F26">
+        <v>-0.06866880884670218</v>
+      </c>
+      <c r="G26">
+        <v>0.02241394152067439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1016289320961014</v>
+        <v>0.1431701834539987</v>
       </c>
       <c r="C28">
-        <v>-0.2409251684611252</v>
+        <v>-0.246887220097268</v>
       </c>
       <c r="D28">
-        <v>0.002558387344818711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02615907844567578</v>
+      </c>
+      <c r="E28">
+        <v>0.05908833577119565</v>
+      </c>
+      <c r="F28">
+        <v>-0.04262249588934802</v>
+      </c>
+      <c r="G28">
+        <v>0.04375647226045644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.005830935435287004</v>
+        <v>0.004672120562140264</v>
       </c>
       <c r="C29">
-        <v>0.03289783131648469</v>
+        <v>0.02930415119759087</v>
       </c>
       <c r="D29">
-        <v>0.01716151687743036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01539605918658981</v>
+      </c>
+      <c r="E29">
+        <v>0.04656391724574532</v>
+      </c>
+      <c r="F29">
+        <v>-0.08262061946982918</v>
+      </c>
+      <c r="G29">
+        <v>0.05685491172441959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04196978862675437</v>
+        <v>0.03825200126364815</v>
       </c>
       <c r="C30">
-        <v>0.05736041326844435</v>
+        <v>0.05873929858432687</v>
       </c>
       <c r="D30">
-        <v>-0.06672209586047746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09731028700282671</v>
+      </c>
+      <c r="E30">
+        <v>0.07610536494502286</v>
+      </c>
+      <c r="F30">
+        <v>-0.08574199809836851</v>
+      </c>
+      <c r="G30">
+        <v>0.03465518751948007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05577549391153318</v>
+        <v>0.05539458942460463</v>
       </c>
       <c r="C31">
-        <v>0.04715323401882528</v>
+        <v>0.06271032506895464</v>
       </c>
       <c r="D31">
-        <v>0.02787549794752589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01504077982616866</v>
+      </c>
+      <c r="E31">
+        <v>0.0662926439568058</v>
+      </c>
+      <c r="F31">
+        <v>-0.04725755076389605</v>
+      </c>
+      <c r="G31">
+        <v>0.07452676364409344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002508932089725215</v>
+        <v>0.00447840401050326</v>
       </c>
       <c r="C32">
-        <v>0.04020688801152773</v>
+        <v>0.03337967258495068</v>
       </c>
       <c r="D32">
-        <v>-0.04867046532651979</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05257176104441057</v>
+      </c>
+      <c r="E32">
+        <v>0.05800572174182594</v>
+      </c>
+      <c r="F32">
+        <v>-0.07153508883907009</v>
+      </c>
+      <c r="G32">
+        <v>0.028363154261858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02645352677970814</v>
+        <v>0.02314495110124253</v>
       </c>
       <c r="C33">
-        <v>0.0637608859366436</v>
+        <v>0.05565581947957839</v>
       </c>
       <c r="D33">
-        <v>-0.04081018092131102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07035701080134887</v>
+      </c>
+      <c r="E33">
+        <v>0.08993609256287499</v>
+      </c>
+      <c r="F33">
+        <v>-0.09912113515109942</v>
+      </c>
+      <c r="G33">
+        <v>0.07193258261378724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04369240088875503</v>
+        <v>0.03946730213999942</v>
       </c>
       <c r="C34">
-        <v>0.06760112816636014</v>
+        <v>0.06533562215524147</v>
       </c>
       <c r="D34">
-        <v>-0.009768664186466413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03587980433809092</v>
+      </c>
+      <c r="E34">
+        <v>0.01229806202204158</v>
+      </c>
+      <c r="F34">
+        <v>-0.07055808499163521</v>
+      </c>
+      <c r="G34">
+        <v>0.04787819980748422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01511303601043712</v>
+        <v>0.01370448864351455</v>
       </c>
       <c r="C36">
-        <v>0.017560350421332</v>
+        <v>0.0135073234339641</v>
       </c>
       <c r="D36">
-        <v>0.00412186631066598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02071833025221208</v>
+      </c>
+      <c r="E36">
+        <v>0.05680010669028686</v>
+      </c>
+      <c r="F36">
+        <v>-0.06501343511113651</v>
+      </c>
+      <c r="G36">
+        <v>0.04375631919361381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02845429533988858</v>
+        <v>0.02226628518656544</v>
       </c>
       <c r="C38">
-        <v>0.03150800039306366</v>
+        <v>0.02410220186816015</v>
       </c>
       <c r="D38">
-        <v>0.0146339340793699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01795163286711818</v>
+      </c>
+      <c r="E38">
+        <v>0.04822648673686246</v>
+      </c>
+      <c r="F38">
+        <v>-0.05222207332249618</v>
+      </c>
+      <c r="G38">
+        <v>0.0295599168939361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04248508911600359</v>
+        <v>0.03721593466104657</v>
       </c>
       <c r="C39">
-        <v>0.06801555987236772</v>
+        <v>0.06583863356728276</v>
       </c>
       <c r="D39">
-        <v>-0.01481998837972147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04800441787906717</v>
+      </c>
+      <c r="E39">
+        <v>0.04569678668133376</v>
+      </c>
+      <c r="F39">
+        <v>-0.08677200458685387</v>
+      </c>
+      <c r="G39">
+        <v>0.03311834093839357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01148487421336119</v>
+        <v>0.0121659986208094</v>
       </c>
       <c r="C40">
-        <v>0.05199311746391012</v>
+        <v>0.03755991690059381</v>
       </c>
       <c r="D40">
-        <v>-0.01695717581319591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02801521160921132</v>
+      </c>
+      <c r="E40">
+        <v>0.08281415748167907</v>
+      </c>
+      <c r="F40">
+        <v>-0.05878909628273472</v>
+      </c>
+      <c r="G40">
+        <v>0.08262048345351071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02151820084385062</v>
+        <v>0.01907888299286548</v>
       </c>
       <c r="C41">
-        <v>0.0136525532636122</v>
+        <v>0.0106915196291877</v>
       </c>
       <c r="D41">
-        <v>-0.002591076580780833</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01482975691821962</v>
+      </c>
+      <c r="E41">
+        <v>0.05741039046896818</v>
+      </c>
+      <c r="F41">
+        <v>-0.05886820642607998</v>
+      </c>
+      <c r="G41">
+        <v>0.03597672241435099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0376627383860146</v>
+        <v>0.02843511984520818</v>
       </c>
       <c r="C43">
-        <v>0.03556677427353365</v>
+        <v>0.02589403117622592</v>
       </c>
       <c r="D43">
-        <v>-0.02949868096901346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.041605463191863</v>
+      </c>
+      <c r="E43">
+        <v>0.07331809584054756</v>
+      </c>
+      <c r="F43">
+        <v>-0.06102295862805177</v>
+      </c>
+      <c r="G43">
+        <v>0.06033866764002853</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0103003120460798</v>
+        <v>0.01260489237700981</v>
       </c>
       <c r="C44">
-        <v>0.06794081607899348</v>
+        <v>0.04886691932415001</v>
       </c>
       <c r="D44">
-        <v>-0.009190254321393729</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03109645841341733</v>
+      </c>
+      <c r="E44">
+        <v>0.08753396897152174</v>
+      </c>
+      <c r="F44">
+        <v>-0.06990597088788461</v>
+      </c>
+      <c r="G44">
+        <v>0.02572887545876677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006977183562910887</v>
+        <v>0.007873047781150465</v>
       </c>
       <c r="C46">
-        <v>0.02945431848090878</v>
+        <v>0.02954674407103238</v>
       </c>
       <c r="D46">
-        <v>0.01874195266072507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.008964032138961507</v>
+      </c>
+      <c r="E46">
+        <v>0.05555851717344001</v>
+      </c>
+      <c r="F46">
+        <v>-0.09748065246647275</v>
+      </c>
+      <c r="G46">
+        <v>0.05443852147570702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08181739042860758</v>
+        <v>0.0865194724789512</v>
       </c>
       <c r="C47">
-        <v>0.07334434783932922</v>
+        <v>0.0833672639738875</v>
       </c>
       <c r="D47">
-        <v>0.02559723959428416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02182344522075294</v>
+      </c>
+      <c r="E47">
+        <v>0.06868782520822264</v>
+      </c>
+      <c r="F47">
+        <v>-0.04568656878486273</v>
+      </c>
+      <c r="G47">
+        <v>0.07378020789183307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01755796382265947</v>
+        <v>0.01579326000531978</v>
       </c>
       <c r="C48">
-        <v>0.01598806116125679</v>
+        <v>0.01705501393807856</v>
       </c>
       <c r="D48">
-        <v>0.01706100957749368</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01002514900461739</v>
+      </c>
+      <c r="E48">
+        <v>0.06715159547641698</v>
+      </c>
+      <c r="F48">
+        <v>-0.081719079191457</v>
+      </c>
+      <c r="G48">
+        <v>0.05069264691875988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07801359494834245</v>
+        <v>0.06892696268198231</v>
       </c>
       <c r="C50">
-        <v>0.08384557080904166</v>
+        <v>0.07742768511962468</v>
       </c>
       <c r="D50">
-        <v>0.02686904252427601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007473065766968272</v>
+      </c>
+      <c r="E50">
+        <v>0.07450493138789925</v>
+      </c>
+      <c r="F50">
+        <v>-0.02399091831816558</v>
+      </c>
+      <c r="G50">
+        <v>0.0908765908179747</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01271353288399702</v>
+        <v>0.008495236150953978</v>
       </c>
       <c r="C51">
-        <v>0.05114487613952477</v>
+        <v>0.0321656076599303</v>
       </c>
       <c r="D51">
-        <v>-0.03169404553354008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05120808602890804</v>
+      </c>
+      <c r="E51">
+        <v>0.04866744705989941</v>
+      </c>
+      <c r="F51">
+        <v>-0.08318858883172499</v>
+      </c>
+      <c r="G51">
+        <v>0.02983917008913746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.07955890432293911</v>
+        <v>0.09238017843204707</v>
       </c>
       <c r="C53">
-        <v>0.07994307828712101</v>
+        <v>0.08990193630551374</v>
       </c>
       <c r="D53">
-        <v>0.04920334809339337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05307403555343788</v>
+      </c>
+      <c r="E53">
+        <v>0.06369503327087261</v>
+      </c>
+      <c r="F53">
+        <v>-0.04447710097899607</v>
+      </c>
+      <c r="G53">
+        <v>0.07831395379863733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03111543830193946</v>
+        <v>0.02738666552828583</v>
       </c>
       <c r="C54">
-        <v>0.03256026536521296</v>
+        <v>0.02977053688943406</v>
       </c>
       <c r="D54">
-        <v>0.003545173947664901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02349202468148575</v>
+      </c>
+      <c r="E54">
+        <v>0.05515019838268743</v>
+      </c>
+      <c r="F54">
+        <v>-0.08907773548293763</v>
+      </c>
+      <c r="G54">
+        <v>0.0559969772993666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07383692053153289</v>
+        <v>0.08440079927765198</v>
       </c>
       <c r="C55">
-        <v>0.06034564314579088</v>
+        <v>0.07229331956828536</v>
       </c>
       <c r="D55">
-        <v>0.05347046847077141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05673616742326779</v>
+      </c>
+      <c r="E55">
+        <v>0.04538388816762326</v>
+      </c>
+      <c r="F55">
+        <v>-0.0250754102246219</v>
+      </c>
+      <c r="G55">
+        <v>0.0584660805615926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1433038922199817</v>
+        <v>0.1456268957415435</v>
       </c>
       <c r="C56">
-        <v>0.09880147176121613</v>
+        <v>0.1106144080193946</v>
       </c>
       <c r="D56">
-        <v>0.0455932234022423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05306601624394743</v>
+      </c>
+      <c r="E56">
+        <v>0.04532605594836085</v>
+      </c>
+      <c r="F56">
+        <v>-0.001958112137966704</v>
+      </c>
+      <c r="G56">
+        <v>0.04599114838084912</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04387022872365199</v>
+        <v>0.02600052266357328</v>
       </c>
       <c r="C58">
-        <v>0.03264805915947258</v>
+        <v>0.02748564985058628</v>
       </c>
       <c r="D58">
-        <v>-0.7460537924853036</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3851227705982432</v>
+      </c>
+      <c r="E58">
+        <v>0.6537320567079978</v>
+      </c>
+      <c r="F58">
+        <v>0.5048747462708929</v>
+      </c>
+      <c r="G58">
+        <v>-0.2964510102137519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1388602324786802</v>
+        <v>0.1494785453570793</v>
       </c>
       <c r="C59">
-        <v>-0.1934036008030271</v>
+        <v>-0.1843207300510974</v>
       </c>
       <c r="D59">
-        <v>-0.02683770857680016</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02680344652567607</v>
+      </c>
+      <c r="E59">
+        <v>0.02898886219670794</v>
+      </c>
+      <c r="F59">
+        <v>-0.027506655050683</v>
+      </c>
+      <c r="G59">
+        <v>-0.0212485060387776</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.307953724669216</v>
+        <v>0.2794320435946689</v>
       </c>
       <c r="C60">
-        <v>0.1130803705898723</v>
+        <v>0.1097881316099818</v>
       </c>
       <c r="D60">
-        <v>-0.1375534924553132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2587607435443019</v>
+      </c>
+      <c r="E60">
+        <v>-0.2445053182445854</v>
+      </c>
+      <c r="F60">
+        <v>0.06988055036366647</v>
+      </c>
+      <c r="G60">
+        <v>0.04286892041466387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0407358639909861</v>
+        <v>0.03879660208272384</v>
       </c>
       <c r="C61">
-        <v>0.06567198884613358</v>
+        <v>0.06164719169338965</v>
       </c>
       <c r="D61">
-        <v>-0.01075642247092552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03912065875492097</v>
+      </c>
+      <c r="E61">
+        <v>0.04866841541894144</v>
+      </c>
+      <c r="F61">
+        <v>-0.07051687257625727</v>
+      </c>
+      <c r="G61">
+        <v>0.05244152234595994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01414483560607784</v>
+        <v>0.0138326076383575</v>
       </c>
       <c r="C63">
-        <v>0.03509890489771127</v>
+        <v>0.03238900909140635</v>
       </c>
       <c r="D63">
-        <v>0.01317831125166698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01545401630503987</v>
+      </c>
+      <c r="E63">
+        <v>0.05949019592033476</v>
+      </c>
+      <c r="F63">
+        <v>-0.05481028776480706</v>
+      </c>
+      <c r="G63">
+        <v>0.06111142681544512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04759183249875766</v>
+        <v>0.05378115724244129</v>
       </c>
       <c r="C64">
-        <v>0.04898255485017221</v>
+        <v>0.05851634382157838</v>
       </c>
       <c r="D64">
-        <v>0.0009651513823212324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.003135414203356173</v>
+      </c>
+      <c r="E64">
+        <v>0.03620988875381787</v>
+      </c>
+      <c r="F64">
+        <v>-0.07370051189697628</v>
+      </c>
+      <c r="G64">
+        <v>0.04464806861729855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08297776869557313</v>
+        <v>0.06722102132127245</v>
       </c>
       <c r="C65">
-        <v>0.033048636726777</v>
+        <v>0.03069350456313748</v>
       </c>
       <c r="D65">
-        <v>-0.05860666327396762</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08558996517787759</v>
+      </c>
+      <c r="E65">
+        <v>0.05039920191677052</v>
+      </c>
+      <c r="F65">
+        <v>-0.005450150153105806</v>
+      </c>
+      <c r="G65">
+        <v>0.01568301253269103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05717972658216354</v>
+        <v>0.04829755132547155</v>
       </c>
       <c r="C66">
-        <v>0.09409656207958515</v>
+        <v>0.08474983962304433</v>
       </c>
       <c r="D66">
-        <v>-0.0337066018892473</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07223403336124856</v>
+      </c>
+      <c r="E66">
+        <v>0.05377270053038597</v>
+      </c>
+      <c r="F66">
+        <v>-0.08461105619985791</v>
+      </c>
+      <c r="G66">
+        <v>0.05082332081545612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05072116139903689</v>
+        <v>0.04435152814495467</v>
       </c>
       <c r="C67">
-        <v>0.03366324285789218</v>
+        <v>0.02980545986654967</v>
       </c>
       <c r="D67">
-        <v>0.0211757165418026</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.002732848625639365</v>
+      </c>
+      <c r="E67">
+        <v>0.02557012280358777</v>
+      </c>
+      <c r="F67">
+        <v>-0.03782364424938624</v>
+      </c>
+      <c r="G67">
+        <v>0.02587572685184446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1383850246184801</v>
+        <v>0.1586379492903712</v>
       </c>
       <c r="C68">
-        <v>-0.278555933208028</v>
+        <v>-0.2423905939785123</v>
       </c>
       <c r="D68">
-        <v>0.001440078065638422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01482861166883334</v>
+      </c>
+      <c r="E68">
+        <v>0.04142591712733342</v>
+      </c>
+      <c r="F68">
+        <v>-0.01407496804137393</v>
+      </c>
+      <c r="G68">
+        <v>0.02877158310999789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08830009318405893</v>
+        <v>0.08542584332809097</v>
       </c>
       <c r="C69">
-        <v>0.07335196881537193</v>
+        <v>0.09067605865421895</v>
       </c>
       <c r="D69">
-        <v>0.04064901265884695</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01302974913300174</v>
+      </c>
+      <c r="E69">
+        <v>0.05338125845768758</v>
+      </c>
+      <c r="F69">
+        <v>-0.07232168277543409</v>
+      </c>
+      <c r="G69">
+        <v>0.06326069657394615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1251448067182389</v>
+        <v>0.1489914622738367</v>
       </c>
       <c r="C71">
-        <v>-0.2459782076880999</v>
+        <v>-0.2339811006853778</v>
       </c>
       <c r="D71">
-        <v>-0.02283554041571025</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002639889686887018</v>
+      </c>
+      <c r="E71">
+        <v>0.06382950186877107</v>
+      </c>
+      <c r="F71">
+        <v>-0.03298065946841632</v>
+      </c>
+      <c r="G71">
+        <v>0.05859438648665237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08926797251854975</v>
+        <v>0.09791244150827176</v>
       </c>
       <c r="C72">
-        <v>0.06136492005616816</v>
+        <v>0.06173341546694919</v>
       </c>
       <c r="D72">
-        <v>-0.001499054226446594</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02613431526711283</v>
+      </c>
+      <c r="E72">
+        <v>0.02637921103380868</v>
+      </c>
+      <c r="F72">
+        <v>-0.05132461577680283</v>
+      </c>
+      <c r="G72">
+        <v>0.06269823588061889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4028720272542092</v>
+        <v>0.3415613274054007</v>
       </c>
       <c r="C73">
-        <v>0.06653868911752794</v>
+        <v>0.07912701833986954</v>
       </c>
       <c r="D73">
-        <v>-0.3469024717693581</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5164569134691043</v>
+      </c>
+      <c r="E73">
+        <v>-0.445893172541319</v>
+      </c>
+      <c r="F73">
+        <v>0.2235574866890777</v>
+      </c>
+      <c r="G73">
+        <v>0.04435558756970975</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1021398042396413</v>
+        <v>0.1079207512493271</v>
       </c>
       <c r="C74">
-        <v>0.09676536276833134</v>
+        <v>0.09794447293919123</v>
       </c>
       <c r="D74">
-        <v>0.02515368853680051</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04253067681297588</v>
+      </c>
+      <c r="E74">
+        <v>0.06310149241145417</v>
+      </c>
+      <c r="F74">
+        <v>0.0001652783373482177</v>
+      </c>
+      <c r="G74">
+        <v>0.06727134161821412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2507017721262175</v>
+        <v>0.2550810368054566</v>
       </c>
       <c r="C75">
-        <v>0.1112387259699198</v>
+        <v>0.1376172458550425</v>
       </c>
       <c r="D75">
-        <v>0.109523613199347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1492834267836205</v>
+      </c>
+      <c r="E75">
+        <v>0.0476580300363288</v>
+      </c>
+      <c r="F75">
+        <v>0.04205785269774869</v>
+      </c>
+      <c r="G75">
+        <v>0.01752152638801717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1086418055811011</v>
+        <v>0.1237123738522718</v>
       </c>
       <c r="C76">
-        <v>0.08602980835832166</v>
+        <v>0.09856505191753595</v>
       </c>
       <c r="D76">
-        <v>0.05103570488657949</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07085433503598053</v>
+      </c>
+      <c r="E76">
+        <v>0.07099463330941791</v>
+      </c>
+      <c r="F76">
+        <v>-0.02297191174696168</v>
+      </c>
+      <c r="G76">
+        <v>0.05606189503351211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07445912385902606</v>
+        <v>0.06050121084998668</v>
       </c>
       <c r="C77">
-        <v>0.06004674212075028</v>
+        <v>0.06759757930725667</v>
       </c>
       <c r="D77">
-        <v>-0.04885746058476554</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05468805738000883</v>
+      </c>
+      <c r="E77">
+        <v>0.09919817780325169</v>
+      </c>
+      <c r="F77">
+        <v>-0.1510933177551413</v>
+      </c>
+      <c r="G77">
+        <v>-0.1124952321270804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0455455784011269</v>
+        <v>0.04247474595686777</v>
       </c>
       <c r="C78">
-        <v>0.05218853650689688</v>
+        <v>0.05833369989424118</v>
       </c>
       <c r="D78">
-        <v>-0.017321541632499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05713368615949269</v>
+      </c>
+      <c r="E78">
+        <v>0.0567030614707252</v>
+      </c>
+      <c r="F78">
+        <v>-0.07855054010787201</v>
+      </c>
+      <c r="G78">
+        <v>0.04543211391774853</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02844064473009326</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04573999156651697</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07353200703035105</v>
+      </c>
+      <c r="E79">
+        <v>0.06193527165784785</v>
+      </c>
+      <c r="F79">
+        <v>0.008195972166979744</v>
+      </c>
+      <c r="G79">
+        <v>0.06261783341465246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03827469904314973</v>
+        <v>0.02977363194865656</v>
       </c>
       <c r="C80">
-        <v>0.05185237369639597</v>
+        <v>0.05123257616093976</v>
       </c>
       <c r="D80">
-        <v>-0.02383081507569747</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03651736695354271</v>
+      </c>
+      <c r="E80">
+        <v>0.01826777003049298</v>
+      </c>
+      <c r="F80">
+        <v>-0.0421433576048886</v>
+      </c>
+      <c r="G80">
+        <v>-0.02970901523265528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1368339893071325</v>
+        <v>0.136555056879051</v>
       </c>
       <c r="C81">
-        <v>0.08035110144404543</v>
+        <v>0.0973951303834644</v>
       </c>
       <c r="D81">
-        <v>0.07716326629555111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1179055889818666</v>
+      </c>
+      <c r="E81">
+        <v>0.06993965010135325</v>
+      </c>
+      <c r="F81">
+        <v>0.02698404520495977</v>
+      </c>
+      <c r="G81">
+        <v>0.02371508716722725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1691488827261283</v>
+        <v>0.2068266580536744</v>
       </c>
       <c r="C82">
-        <v>0.09729633730356352</v>
+        <v>0.1612085302564941</v>
       </c>
       <c r="D82">
-        <v>0.1736012330414894</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2442591733812385</v>
+      </c>
+      <c r="E82">
+        <v>-0.01168926147608896</v>
+      </c>
+      <c r="F82">
+        <v>-0.06425939053885374</v>
+      </c>
+      <c r="G82">
+        <v>0.04759277797663482</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03818264920203241</v>
+        <v>0.02620528240065266</v>
       </c>
       <c r="C83">
-        <v>0.03165393567538569</v>
+        <v>0.04328376631005664</v>
       </c>
       <c r="D83">
-        <v>-0.02771914288171056</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02769169263666035</v>
+      </c>
+      <c r="E83">
+        <v>0.02399875688135635</v>
+      </c>
+      <c r="F83">
+        <v>-0.04598523292168058</v>
+      </c>
+      <c r="G83">
+        <v>-0.003555367775601928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001273428325444991</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007574843570123529</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001137091456790568</v>
+      </c>
+      <c r="E84">
+        <v>0.0007830118755162114</v>
+      </c>
+      <c r="F84">
+        <v>-0.0009810600096227542</v>
+      </c>
+      <c r="G84">
+        <v>0.0004406919716023503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2160547344217317</v>
+        <v>0.1998459864315857</v>
       </c>
       <c r="C85">
-        <v>0.1088002262446668</v>
+        <v>0.1206382207113786</v>
       </c>
       <c r="D85">
-        <v>0.1431947862776671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1152844785158924</v>
+      </c>
+      <c r="E85">
+        <v>-0.02165789957998191</v>
+      </c>
+      <c r="F85">
+        <v>0.08577266660137862</v>
+      </c>
+      <c r="G85">
+        <v>0.06816850169951867</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.004436694544589269</v>
+        <v>0.007293911190534848</v>
       </c>
       <c r="C86">
-        <v>0.02831718006830697</v>
+        <v>0.02046517765541064</v>
       </c>
       <c r="D86">
-        <v>-0.0451477902770953</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05760603110242683</v>
+      </c>
+      <c r="E86">
+        <v>0.0759764707944143</v>
+      </c>
+      <c r="F86">
+        <v>-0.1185810834239009</v>
+      </c>
+      <c r="G86">
+        <v>0.05029397109321639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02258946284008468</v>
+        <v>0.02293076984574309</v>
       </c>
       <c r="C87">
-        <v>0.009251070161474688</v>
+        <v>0.01463213914047222</v>
       </c>
       <c r="D87">
-        <v>-0.08810397627560645</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07968860035462329</v>
+      </c>
+      <c r="E87">
+        <v>0.1263622440788511</v>
+      </c>
+      <c r="F87">
+        <v>-0.08102883873830521</v>
+      </c>
+      <c r="G87">
+        <v>-0.004497488182717187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1034669000506269</v>
+        <v>0.09089295153317424</v>
       </c>
       <c r="C88">
-        <v>0.07493019617489652</v>
+        <v>0.06459097586872591</v>
       </c>
       <c r="D88">
-        <v>0.02408616853243707</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.00375014997084717</v>
+      </c>
+      <c r="E88">
+        <v>0.04818134938992936</v>
+      </c>
+      <c r="F88">
+        <v>-0.07426377802604374</v>
+      </c>
+      <c r="G88">
+        <v>0.01431553926739683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.198896162488001</v>
+        <v>0.2295608826860174</v>
       </c>
       <c r="C89">
-        <v>-0.3710303127615925</v>
+        <v>-0.3728883561258701</v>
       </c>
       <c r="D89">
-        <v>0.02582733834137642</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02538477745836491</v>
+      </c>
+      <c r="E89">
+        <v>0.06766886719647495</v>
+      </c>
+      <c r="F89">
+        <v>-0.08890791350659831</v>
+      </c>
+      <c r="G89">
+        <v>-0.03082270473502048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1901490363555916</v>
+        <v>0.2085465025570655</v>
       </c>
       <c r="C90">
-        <v>-0.3288352380855211</v>
+        <v>-0.3068460892373438</v>
       </c>
       <c r="D90">
-        <v>0.02602131853525377</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02671617420882037</v>
+      </c>
+      <c r="E90">
+        <v>0.06768033685017449</v>
+      </c>
+      <c r="F90">
+        <v>-0.03942616887125235</v>
+      </c>
+      <c r="G90">
+        <v>0.002469878247854223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1854828027856935</v>
+        <v>0.183118232771516</v>
       </c>
       <c r="C91">
-        <v>0.132857899349784</v>
+        <v>0.1484864612175453</v>
       </c>
       <c r="D91">
-        <v>0.1041372339916069</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1250705214556043</v>
+      </c>
+      <c r="E91">
+        <v>0.04851857442200921</v>
+      </c>
+      <c r="F91">
+        <v>0.01138081010750054</v>
+      </c>
+      <c r="G91">
+        <v>0.02771696253321191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1711728080956519</v>
+        <v>0.1880386331126434</v>
       </c>
       <c r="C92">
-        <v>-0.2751218921258796</v>
+        <v>-0.2828986206688607</v>
       </c>
       <c r="D92">
-        <v>0.01899349774706294</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02827288581840044</v>
+      </c>
+      <c r="E92">
+        <v>0.07264097244005591</v>
+      </c>
+      <c r="F92">
+        <v>-0.07415228925134947</v>
+      </c>
+      <c r="G92">
+        <v>0.01321778745518911</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2120070831087997</v>
+        <v>0.231247063988867</v>
       </c>
       <c r="C93">
-        <v>-0.3294263603397678</v>
+        <v>-0.3127816264523725</v>
       </c>
       <c r="D93">
-        <v>0.02628694985258436</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02141116482655041</v>
+      </c>
+      <c r="E93">
+        <v>0.04097481988861167</v>
+      </c>
+      <c r="F93">
+        <v>-0.01712764630452688</v>
+      </c>
+      <c r="G93">
+        <v>0.03494968710924692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3324530310760787</v>
+        <v>0.3357197013951168</v>
       </c>
       <c r="C94">
-        <v>0.1590028585364097</v>
+        <v>0.1956466385139478</v>
       </c>
       <c r="D94">
-        <v>0.3411555974330876</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4343658779993657</v>
+      </c>
+      <c r="E94">
+        <v>-0.003024003051347867</v>
+      </c>
+      <c r="F94">
+        <v>0.2695853384409398</v>
+      </c>
+      <c r="G94">
+        <v>-0.4197658962680125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1105903198892227</v>
+        <v>0.08213498467822948</v>
       </c>
       <c r="C95">
-        <v>0.07512796999518939</v>
+        <v>0.06582749627129403</v>
       </c>
       <c r="D95">
-        <v>-0.1320500450118018</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1841637342217662</v>
+      </c>
+      <c r="E95">
+        <v>-0.09101256880428764</v>
+      </c>
+      <c r="F95">
+        <v>-0.5374737527079289</v>
+      </c>
+      <c r="G95">
+        <v>-0.7299380767339483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1953346242086754</v>
+        <v>0.187072270081795</v>
       </c>
       <c r="C98">
-        <v>0.02637297310787974</v>
+        <v>0.04810267427224013</v>
       </c>
       <c r="D98">
-        <v>-0.1206903869823814</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1972455403257337</v>
+      </c>
+      <c r="E98">
+        <v>-0.1349671145763746</v>
+      </c>
+      <c r="F98">
+        <v>0.05461662722451081</v>
+      </c>
+      <c r="G98">
+        <v>0.08933386550994123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005678769134836715</v>
+        <v>0.004648583457295388</v>
       </c>
       <c r="C101">
-        <v>0.03278767370796736</v>
+        <v>0.02895706909023879</v>
       </c>
       <c r="D101">
-        <v>0.016993150123662</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01536301021991368</v>
+      </c>
+      <c r="E101">
+        <v>0.04727087453685339</v>
+      </c>
+      <c r="F101">
+        <v>-0.08332192188067462</v>
+      </c>
+      <c r="G101">
+        <v>0.05661329355836539</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.12191220947552</v>
+        <v>0.1235175148016099</v>
       </c>
       <c r="C102">
-        <v>0.07547381360168677</v>
+        <v>0.1041899636808596</v>
       </c>
       <c r="D102">
-        <v>0.04046297003545793</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05298336558816379</v>
+      </c>
+      <c r="E102">
+        <v>-0.01007114562758409</v>
+      </c>
+      <c r="F102">
+        <v>-0.01986780386141627</v>
+      </c>
+      <c r="G102">
+        <v>0.002424194629327743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
